--- a/GameMaster/RPGTale/Data/Data_Excel/ExploreMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/ExploreMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57672433-7147-40DF-98EA-BB991FBE393A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8C8194-B41D-45B7-9C74-A469713B8EFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4950" yWindow="2055" windowWidth="26295" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3060" yWindow="2295" windowWidth="24795" windowHeight="12510" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExploreArea" sheetId="2" r:id="rId1"/>
@@ -670,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD7B1E4-F0D7-4BD2-94C9-D21747820F10}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -921,7 +921,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1391,8 +1391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BF95E4-A844-485D-B9D9-9F3997218EED}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1484,7 +1484,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/GameMaster/RPGTale/Data/Data_Excel/ExploreMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/ExploreMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8C8194-B41D-45B7-9C74-A469713B8EFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E2B85B-2033-4328-AF03-39239BBC87A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="2295" windowWidth="24795" windowHeight="12510" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="915" yWindow="1095" windowWidth="24780" windowHeight="12510" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExploreArea" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
   <si>
     <t>ExploreID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,11 +249,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NextEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitleName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExploreEvent_TitleName_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExploreEvent_TitleName_2</t>
+  </si>
+  <si>
+    <t>ExploreEvent_TitleName_3</t>
+  </si>
+  <si>
+    <t>ExploreEvent_TitleName_4</t>
+  </si>
+  <si>
+    <t>EventBG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/RandomEvent/BG/RandomEvent_Pic_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1389,21 +1414,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BF95E4-A844-485D-B9D9-9F3997218EED}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="3" width="20.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2"/>
+    <col min="2" max="2" width="20.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1411,13 +1439,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1425,13 +1459,19 @@
         <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1439,13 +1479,19 @@
         <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1453,13 +1499,19 @@
         <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1467,15 +1519,22 @@
         <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1483,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704E471A-C2F8-4396-A62B-F036FB8D977F}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1504,10 +1563,10 @@
         <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1534,7 +1593,7 @@
         <v>ExlopreChoose_Content_2</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
         <v>3</v>
@@ -1549,7 +1608,7 @@
         <v>ExlopreChoose_Content_3</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -1579,7 +1638,7 @@
         <v>ExlopreChoose_Content_5</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -1594,7 +1653,7 @@
         <v>ExlopreChoose_Content_6</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -1607,5 +1666,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GameMaster/RPGTale/Data/Data_Excel/ExploreMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/ExploreMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E2B85B-2033-4328-AF03-39239BBC87A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87E3931-DA28-486D-A22D-476E9876DA8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="1095" windowWidth="24780" windowHeight="12510" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="810" windowWidth="24780" windowHeight="12510" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExploreArea" sheetId="2" r:id="rId1"/>
@@ -696,7 +696,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -769,7 +769,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -946,7 +946,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1417,7 +1417,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1543,7 +1543,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/GameMaster/RPGTale/Data/Data_Excel/ExploreMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/ExploreMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87E3931-DA28-486D-A22D-476E9876DA8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6845ED93-3B62-413F-952D-34F5C8FA52B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="810" windowWidth="24780" windowHeight="12510" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1350" yWindow="2115" windowWidth="24780" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExploreArea" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
   <si>
     <t>ExploreID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,6 +279,18 @@
   </si>
   <si>
     <t>SpriteOutput/RandomEvent/BG/RandomEvent_Pic_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExploreArea_Name_101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExploreArea_Desc_101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -693,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD7B1E4-F0D7-4BD2-94C9-D21747820F10}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -704,10 +716,11 @@
     <col min="1" max="1" width="10.25" customWidth="1"/>
     <col min="2" max="2" width="21.625" customWidth="1"/>
     <col min="3" max="3" width="26.25" customWidth="1"/>
-    <col min="4" max="4" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -718,10 +731,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>100</v>
       </c>
@@ -731,24 +747,43 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>101</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -769,7 +804,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -946,7 +981,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D15" sqref="D2:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1417,7 +1452,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1542,8 +1577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704E471A-C2F8-4396-A62B-F036FB8D977F}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/GameMaster/RPGTale/Data/Data_Excel/ExploreMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/ExploreMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6845ED93-3B62-413F-952D-34F5C8FA52B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C50DB2-3582-41E0-A4A3-50D5063652ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="2115" windowWidth="24780" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1110" yWindow="2175" windowWidth="24720" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExploreArea" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
   <si>
     <t>ExploreID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,6 +291,46 @@
   </si>
   <si>
     <t>ExploreArea_Desc_101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExploreArea_NameTitle_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Explore/AreaIcon/Explore_Icon_Mars</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExploreArea_NameTitle_101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Explore/AreaIcon/Explore_Icon_Jupiter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefaultMissionCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -705,85 +745,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD7B1E4-F0D7-4BD2-94C9-D21747820F10}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="3" max="3" width="26.25" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.25" customWidth="1"/>
+    <col min="6" max="6" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="2" t="b">
+      <c r="F3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -804,7 +884,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -981,7 +1061,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D2:D15"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/GameMaster/RPGTale/Data/Data_Excel/ExploreMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/ExploreMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C50DB2-3582-41E0-A4A3-50D5063652ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFC9AF5-B8A6-49C0-BE24-C895F4760B2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1110" yWindow="2175" windowWidth="24720" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExploreArea" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
   <si>
     <t>ExploreID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,6 +331,14 @@
   </si>
   <si>
     <t>DefaultMissionCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MissionName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -747,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD7B1E4-F0D7-4BD2-94C9-D21747820F10}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -881,168 +889,216 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
-    <col min="2" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="2" t="str">
+        <f>"ExploreMission_Name_"&amp;A2</f>
+        <v>ExploreMission_Name_1</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>"ExploreMission_AreaName_"&amp;A2</f>
+        <v>ExploreMission_AreaName_1</v>
+      </c>
+      <c r="D2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
       <c r="F2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="2" t="str">
+        <f t="shared" ref="B3:B6" si="0">"ExploreMission_Name_"&amp;A3</f>
+        <v>ExploreMission_Name_2</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f t="shared" ref="C3:C6" si="1">"ExploreMission_AreaName_"&amp;A3</f>
+        <v>ExploreMission_AreaName_2</v>
+      </c>
+      <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10</v>
-      </c>
       <c r="F3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ExploreMission_Name_3</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ExploreMission_AreaName_3</v>
+      </c>
+      <c r="D4" s="2">
         <v>50</v>
       </c>
-      <c r="C4" s="2">
+      <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
         <v>20</v>
       </c>
-      <c r="F4" s="2">
+      <c r="H4" s="2">
         <v>3</v>
       </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ExploreMission_Name_4</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ExploreMission_AreaName_4</v>
+      </c>
+      <c r="D5" s="2">
         <v>50</v>
       </c>
-      <c r="C5" s="2">
+      <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
         <v>20</v>
       </c>
-      <c r="F5" s="2">
+      <c r="H5" s="2">
         <v>3</v>
       </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ExploreMission_Name_5</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ExploreMission_AreaName_5</v>
+      </c>
+      <c r="D6" s="2">
         <v>100</v>
       </c>
-      <c r="C6" s="2">
+      <c r="E6" s="2">
         <v>4</v>
       </c>
-      <c r="D6" s="2">
+      <c r="F6" s="2">
         <v>3</v>
       </c>
-      <c r="E6" s="2">
+      <c r="G6" s="2">
         <v>50</v>
       </c>
-      <c r="F6" s="2">
+      <c r="H6" s="2">
         <v>4</v>
       </c>
-      <c r="G6" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="I6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1053,6 +1109,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1061,7 +1118,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1532,7 +1589,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1658,7 +1715,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/GameMaster/RPGTale/Data/Data_Excel/ExploreMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/ExploreMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFC9AF5-B8A6-49C0-BE24-C895F4760B2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC344114-85F6-46BB-A592-25C53CA9F989}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="2655" windowWidth="24720" windowHeight="12315" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExploreArea" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="89">
   <si>
     <t>ExploreID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,6 +339,22 @@
   </si>
   <si>
     <t>AreaName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MissionDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Explore/AreaBG/ExploreArea_BG_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeamMaxNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -889,10 +905,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -900,12 +916,15 @@
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="8" width="16.375" customWidth="1"/>
+    <col min="9" max="9" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -916,25 +935,34 @@
         <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -946,26 +974,36 @@
         <f>"ExploreMission_AreaName_"&amp;A2</f>
         <v>ExploreMission_AreaName_1</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="2" t="str">
+        <f>"ExploreMission_Desc_"&amp;A2</f>
+        <v>ExploreMission_Desc_1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
         <v>0</v>
       </c>
-      <c r="E2" s="2">
+      <c r="H2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2</v>
-      </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J2" s="2">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2">
+        <v>2</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -977,26 +1015,36 @@
         <f t="shared" ref="C3:C6" si="1">"ExploreMission_AreaName_"&amp;A3</f>
         <v>ExploreMission_AreaName_2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3:D6" si="2">"ExploreMission_Desc_"&amp;A3</f>
+        <v>ExploreMission_Desc_2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="2">
+      <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2</v>
-      </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="2">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2">
+        <v>2</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1008,26 +1056,36 @@
         <f t="shared" si="1"/>
         <v>ExploreMission_AreaName_3</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ExploreMission_Desc_3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2">
         <v>50</v>
       </c>
-      <c r="E4" s="2">
+      <c r="H4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="2">
-        <v>2</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="I4" s="2">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
         <v>20</v>
       </c>
-      <c r="H4" s="2">
+      <c r="K4" s="2">
         <v>3</v>
       </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1039,26 +1097,36 @@
         <f t="shared" si="1"/>
         <v>ExploreMission_AreaName_4</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ExploreMission_Desc_4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
         <v>50</v>
       </c>
-      <c r="E5" s="2">
+      <c r="H5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="2">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
         <v>20</v>
       </c>
-      <c r="H5" s="2">
+      <c r="K5" s="2">
         <v>3</v>
       </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1070,35 +1138,45 @@
         <f t="shared" si="1"/>
         <v>ExploreMission_AreaName_5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ExploreMission_Desc_5</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
         <v>100</v>
-      </c>
-      <c r="E6" s="2">
-        <v>4</v>
-      </c>
-      <c r="F6" s="2">
-        <v>3</v>
-      </c>
-      <c r="G6" s="2">
-        <v>50</v>
       </c>
       <c r="H6" s="2">
         <v>4</v>
       </c>
       <c r="I6" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+        <v>3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>50</v>
+      </c>
+      <c r="K6" s="2">
+        <v>4</v>
+      </c>
+      <c r="L6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.2"/>

--- a/GameMaster/RPGTale/Data/Data_Excel/ExploreMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/ExploreMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC344114-85F6-46BB-A592-25C53CA9F989}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A4A8B0-C0BC-483B-ABD9-DA453A954218}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="2655" windowWidth="24720" windowHeight="12315" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2310" yWindow="2235" windowWidth="24720" windowHeight="12255" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExploreArea" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="112">
   <si>
     <t>ExploreID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,6 +355,87 @@
   </si>
   <si>
     <t>TeamMaxNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PointNevigator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>1,6</t>
+  </si>
+  <si>
+    <t>1,8</t>
+  </si>
+  <si>
+    <t>1,9</t>
+  </si>
+  <si>
+    <t>1,10</t>
+  </si>
+  <si>
+    <t>1,11</t>
+  </si>
+  <si>
+    <t>1,12</t>
+  </si>
+  <si>
+    <t>1,13</t>
+  </si>
+  <si>
+    <t>1,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CameraPos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CameraRotation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.3,210.3,-282.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.47,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.4,210.3,-278.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.506,-36.8,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.6,210.3,-264</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.506,-102.7,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -772,7 +853,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -905,10 +986,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -918,13 +999,14 @@
     <col min="3" max="3" width="26.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="8" width="16.375" customWidth="1"/>
-    <col min="9" max="9" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="6" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="10" width="16.375" customWidth="1"/>
+    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -941,28 +1023,34 @@
         <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -981,29 +1069,35 @@
       <c r="E2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="F2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
         <v>0</v>
       </c>
-      <c r="H2" s="2">
+      <c r="J2" s="2">
         <v>0</v>
       </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2">
-        <v>10</v>
-      </c>
       <c r="K2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="M2" s="2">
+        <v>2</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1022,29 +1116,35 @@
       <c r="E3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="2">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="F3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2">
         <v>0</v>
       </c>
-      <c r="H3" s="2">
+      <c r="J3" s="2">
         <v>0</v>
       </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2">
-        <v>10</v>
-      </c>
       <c r="K3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="M3" s="2">
+        <v>2</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1063,29 +1163,35 @@
       <c r="E4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="2">
         <v>3</v>
       </c>
-      <c r="G4" s="2">
+      <c r="I4" s="2">
         <v>50</v>
       </c>
-      <c r="H4" s="2">
+      <c r="J4" s="2">
         <v>0</v>
       </c>
-      <c r="I4" s="2">
-        <v>2</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
+        <v>2</v>
+      </c>
+      <c r="L4" s="2">
         <v>20</v>
       </c>
-      <c r="K4" s="2">
+      <c r="M4" s="2">
         <v>3</v>
       </c>
-      <c r="L4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1104,29 +1210,35 @@
       <c r="E5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="F5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
         <v>50</v>
       </c>
-      <c r="H5" s="2">
+      <c r="J5" s="2">
         <v>0</v>
       </c>
-      <c r="I5" s="2">
-        <v>2</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2">
         <v>20</v>
       </c>
-      <c r="K5" s="2">
+      <c r="M5" s="2">
         <v>3</v>
       </c>
-      <c r="L5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1145,38 +1257,44 @@
       <c r="E6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="2">
-        <v>2</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="F6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2">
         <v>100</v>
       </c>
-      <c r="H6" s="2">
+      <c r="J6" s="2">
         <v>4</v>
       </c>
-      <c r="I6" s="2">
+      <c r="K6" s="2">
         <v>3</v>
       </c>
-      <c r="J6" s="2">
+      <c r="L6" s="2">
         <v>50</v>
       </c>
-      <c r="K6" s="2">
+      <c r="M6" s="2">
         <v>4</v>
       </c>
-      <c r="L6" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="N6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1193,10 +1311,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9224C49D-6D16-455C-A16A-0EE4472F0E94}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1204,14 +1322,15 @@
     <col min="1" max="2" width="12.5" style="2" customWidth="1"/>
     <col min="3" max="4" width="20.25" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.25" style="2" customWidth="1"/>
-    <col min="10" max="12" width="9" style="2"/>
+    <col min="6" max="6" width="15.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.25" style="2" customWidth="1"/>
+    <col min="11" max="13" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1228,19 +1347,22 @@
         <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1256,20 +1378,23 @@
       <c r="E2" s="2">
         <v>10</v>
       </c>
-      <c r="F2" s="2">
-        <v>1</v>
+      <c r="F2" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
         <v>0</v>
       </c>
-      <c r="H2" s="2">
-        <v>10</v>
-      </c>
       <c r="I2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1285,20 +1410,23 @@
       <c r="E3" s="2">
         <v>10</v>
       </c>
-      <c r="F3" s="2">
-        <v>1</v>
+      <c r="F3" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="H3" s="2">
-        <v>10</v>
-      </c>
       <c r="I3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1314,20 +1442,23 @@
       <c r="E4" s="2">
         <v>10</v>
       </c>
-      <c r="F4" s="2">
-        <v>1</v>
+      <c r="F4" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
         <v>0</v>
       </c>
-      <c r="H4" s="2">
-        <v>10</v>
-      </c>
       <c r="I4" s="2">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1343,20 +1474,23 @@
       <c r="E5" s="2">
         <v>10</v>
       </c>
-      <c r="F5" s="2">
-        <v>2</v>
+      <c r="F5" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="G5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I5" s="2">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1372,20 +1506,23 @@
       <c r="E6" s="2">
         <v>10</v>
       </c>
-      <c r="F6" s="2">
-        <v>2</v>
+      <c r="F6" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="G6" s="2">
         <v>2</v>
       </c>
       <c r="H6" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1401,20 +1538,23 @@
       <c r="E7" s="2">
         <v>10</v>
       </c>
-      <c r="F7" s="2">
-        <v>2</v>
+      <c r="F7" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="G7" s="2">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
         <v>3</v>
       </c>
-      <c r="H7" s="2">
-        <v>10</v>
-      </c>
       <c r="I7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1430,20 +1570,23 @@
       <c r="E8" s="2">
         <v>10</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="2">
         <v>3</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>4</v>
       </c>
-      <c r="H8" s="2">
-        <v>10</v>
-      </c>
       <c r="I8" s="2">
+        <v>10</v>
+      </c>
+      <c r="J8" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1459,20 +1602,23 @@
       <c r="E9" s="2">
         <v>10</v>
       </c>
-      <c r="F9" s="2">
-        <v>1</v>
+      <c r="F9" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
         <v>0</v>
       </c>
-      <c r="H9" s="2">
-        <v>10</v>
-      </c>
       <c r="I9" s="2">
+        <v>10</v>
+      </c>
+      <c r="J9" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1488,20 +1634,23 @@
       <c r="E10" s="2">
         <v>10</v>
       </c>
-      <c r="F10" s="2">
-        <v>1</v>
+      <c r="F10" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
         <v>0</v>
       </c>
-      <c r="H10" s="2">
-        <v>10</v>
-      </c>
       <c r="I10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1517,20 +1666,23 @@
       <c r="E11" s="2">
         <v>10</v>
       </c>
-      <c r="F11" s="2">
-        <v>1</v>
+      <c r="F11" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
         <v>0</v>
       </c>
-      <c r="H11" s="2">
-        <v>10</v>
-      </c>
       <c r="I11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1546,20 +1698,23 @@
       <c r="E12" s="2">
         <v>10</v>
       </c>
-      <c r="F12" s="2">
-        <v>2</v>
+      <c r="F12" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="G12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1575,20 +1730,23 @@
       <c r="E13" s="2">
         <v>10</v>
       </c>
-      <c r="F13" s="2">
-        <v>2</v>
+      <c r="F13" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="G13" s="2">
         <v>2</v>
       </c>
       <c r="H13" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1604,20 +1762,23 @@
       <c r="E14" s="2">
         <v>10</v>
       </c>
-      <c r="F14" s="2">
-        <v>2</v>
+      <c r="F14" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
         <v>3</v>
       </c>
-      <c r="H14" s="2">
-        <v>10</v>
-      </c>
       <c r="I14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1633,20 +1794,23 @@
       <c r="E15" s="2">
         <v>10</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="2">
         <v>3</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>4</v>
       </c>
-      <c r="H15" s="2">
-        <v>10</v>
-      </c>
       <c r="I15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+        <v>10</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1659,6 +1823,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/GameMaster/RPGTale/Data/Data_Excel/ExploreMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/ExploreMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A4A8B0-C0BC-483B-ABD9-DA453A954218}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449D4F92-B6F1-457E-B8B4-941DA7BCBACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2310" yWindow="2235" windowWidth="24720" windowHeight="12255" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-75" yWindow="2055" windowWidth="24720" windowHeight="12255" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExploreArea" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="112">
   <si>
     <t>ExploreID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,10 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -362,51 +358,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>1,3</t>
-  </si>
-  <si>
-    <t>1,4</t>
-  </si>
-  <si>
-    <t>1,5</t>
-  </si>
-  <si>
-    <t>1,6</t>
-  </si>
-  <si>
-    <t>1,8</t>
-  </si>
-  <si>
-    <t>1,9</t>
-  </si>
-  <si>
-    <t>1,10</t>
-  </si>
-  <si>
-    <t>1,11</t>
-  </si>
-  <si>
-    <t>1,12</t>
-  </si>
-  <si>
-    <t>1,13</t>
-  </si>
-  <si>
-    <t>1,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CameraPos</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -436,6 +387,57 @@
   </si>
   <si>
     <t>14.506,-102.7,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101,5</t>
+  </si>
+  <si>
+    <t>101,6</t>
+  </si>
+  <si>
+    <t>101,7</t>
+  </si>
+  <si>
+    <t>101,8</t>
+  </si>
+  <si>
+    <t>101,9</t>
+  </si>
+  <si>
+    <t>101,10</t>
+  </si>
+  <si>
+    <t>101,11</t>
+  </si>
+  <si>
+    <t>101,12</t>
+  </si>
+  <si>
+    <t>101,13</t>
+  </si>
+  <si>
+    <t>101,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101,25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -874,25 +876,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -903,19 +905,19 @@
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G2" s="2" t="b">
         <v>1</v>
@@ -932,19 +934,19 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="G3" s="2" t="b">
         <v>0</v>
@@ -988,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1011,25 +1013,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
@@ -1067,13 +1069,13 @@
         <v>ExploreMission_Desc_1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="H2" s="2">
         <v>1</v>
@@ -1114,13 +1116,13 @@
         <v>ExploreMission_Desc_2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="H3" s="2">
         <v>2</v>
@@ -1161,13 +1163,13 @@
         <v>ExploreMission_Desc_3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="H4" s="2">
         <v>3</v>
@@ -1208,13 +1210,13 @@
         <v>ExploreMission_Desc_4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
@@ -1255,13 +1257,13 @@
         <v>ExploreMission_Desc_5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
@@ -1314,7 +1316,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1347,7 +1349,7 @@
         <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>29</v>
@@ -1379,7 +1381,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
@@ -1411,7 +1413,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
@@ -1443,7 +1445,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -1475,7 +1477,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="G5" s="2">
         <v>2</v>
@@ -1507,7 +1509,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="G6" s="2">
         <v>2</v>
@@ -1539,7 +1541,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G7" s="2">
         <v>2</v>
@@ -1571,7 +1573,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G8" s="2">
         <v>3</v>
@@ -1603,7 +1605,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -1635,7 +1637,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -1667,7 +1669,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -1699,7 +1701,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G12" s="2">
         <v>2</v>
@@ -1731,7 +1733,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G13" s="2">
         <v>2</v>
@@ -1763,7 +1765,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G14" s="2">
         <v>2</v>
@@ -1795,7 +1797,7 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G15" s="2">
         <v>3</v>
@@ -1831,8 +1833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BF95E4-A844-485D-B9D9-9F3997218EED}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1854,13 +1856,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>56</v>
@@ -1874,13 +1876,13 @@
         <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>59</v>
@@ -1894,16 +1896,16 @@
         <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1914,16 +1916,16 @@
         <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1934,16 +1936,16 @@
         <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1958,7 +1960,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1978,10 +1980,10 @@
         <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2011,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2026,7 +2028,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2041,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2056,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">

--- a/GameMaster/RPGTale/Data/Data_Excel/ExploreMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/ExploreMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449D4F92-B6F1-457E-B8B4-941DA7BCBACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D75710-3D5B-44BC-9B33-5A1D45B27D17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="2055" windowWidth="24720" windowHeight="12255" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2310" yWindow="1890" windowWidth="24720" windowHeight="12255" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExploreArea" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="113">
   <si>
     <t>ExploreID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -438,6 +438,10 @@
   </si>
   <si>
     <t>3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -990,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1313,10 +1317,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9224C49D-6D16-455C-A16A-0EE4472F0E94}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1328,11 +1332,11 @@
     <col min="7" max="7" width="18.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="13" style="2" customWidth="1"/>
     <col min="9" max="9" width="11.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.25" style="2" customWidth="1"/>
-    <col min="11" max="13" width="9" style="2"/>
+    <col min="10" max="11" width="11.25" style="2" customWidth="1"/>
+    <col min="12" max="14" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1361,10 +1365,13 @@
         <v>47</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1393,10 +1400,13 @@
         <v>10</v>
       </c>
       <c r="J2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1422,13 +1432,16 @@
         <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="K3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1454,13 +1467,16 @@
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J4" s="2">
+        <v>140</v>
+      </c>
+      <c r="K4" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1486,13 +1502,16 @@
         <v>1</v>
       </c>
       <c r="I5" s="2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="J5" s="2">
+        <v>160</v>
+      </c>
+      <c r="K5" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1518,13 +1537,16 @@
         <v>2</v>
       </c>
       <c r="I6" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1550,13 +1572,16 @@
         <v>3</v>
       </c>
       <c r="I7" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="J7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1582,13 +1607,16 @@
         <v>4</v>
       </c>
       <c r="I8" s="2">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="J8" s="2">
+        <v>220</v>
+      </c>
+      <c r="K8" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1614,13 +1642,16 @@
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J9" s="2">
+        <v>240</v>
+      </c>
+      <c r="K9" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1646,13 +1677,16 @@
         <v>0</v>
       </c>
       <c r="I10" s="2">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="J10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1678,13 +1712,16 @@
         <v>0</v>
       </c>
       <c r="I11" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1710,13 +1747,16 @@
         <v>1</v>
       </c>
       <c r="I12" s="2">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="J12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1742,13 +1782,16 @@
         <v>2</v>
       </c>
       <c r="I13" s="2">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="J13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1774,13 +1817,16 @@
         <v>3</v>
       </c>
       <c r="I14" s="2">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="J14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1806,13 +1852,16 @@
         <v>4</v>
       </c>
       <c r="I15" s="2">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="J15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+        <v>360</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1833,8 +1882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BF95E4-A844-485D-B9D9-9F3997218EED}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/GameMaster/RPGTale/Data/Data_Excel/ExploreMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/ExploreMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D75710-3D5B-44BC-9B33-5A1D45B27D17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9A5877-0702-4235-9A98-ADC60794F712}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="1890" windowWidth="24720" windowHeight="12255" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3750" yWindow="1920" windowWidth="20460" windowHeight="12255" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExploreArea" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="114">
   <si>
     <t>ExploreID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -442,6 +442,10 @@
   </si>
   <si>
     <t>Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HardLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1317,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9224C49D-6D16-455C-A16A-0EE4472F0E94}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1329,14 +1333,14 @@
     <col min="3" max="4" width="20.25" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.25" style="2" customWidth="1"/>
-    <col min="12" max="14" width="9" style="2"/>
+    <col min="7" max="8" width="18.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.25" style="2" customWidth="1"/>
+    <col min="13" max="15" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1359,19 +1363,22 @@
         <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1394,19 +1401,22 @@
         <v>1</v>
       </c>
       <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
         <v>0</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>10</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>100</v>
       </c>
-      <c r="K2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1429,19 +1439,22 @@
         <v>1</v>
       </c>
       <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2">
         <v>0</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>20</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>120</v>
       </c>
-      <c r="K3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1464,19 +1477,22 @@
         <v>1</v>
       </c>
       <c r="H4" s="2">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2">
         <v>0</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>30</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>140</v>
       </c>
-      <c r="K4" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1499,19 +1515,22 @@
         <v>2</v>
       </c>
       <c r="H5" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
         <v>40</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>160</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1534,19 +1553,22 @@
         <v>2</v>
       </c>
       <c r="H6" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I6" s="2">
+        <v>2</v>
+      </c>
+      <c r="J6" s="2">
         <v>50</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>180</v>
       </c>
-      <c r="K6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1569,19 +1591,22 @@
         <v>2</v>
       </c>
       <c r="H7" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7" s="2">
+        <v>3</v>
+      </c>
+      <c r="J7" s="2">
         <v>60</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>200</v>
       </c>
-      <c r="K7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1604,19 +1629,22 @@
         <v>3</v>
       </c>
       <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2">
         <v>4</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>70</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>220</v>
       </c>
-      <c r="K8" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1639,19 +1667,22 @@
         <v>1</v>
       </c>
       <c r="H9" s="2">
+        <v>3</v>
+      </c>
+      <c r="I9" s="2">
         <v>0</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>80</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>240</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1674,19 +1705,22 @@
         <v>1</v>
       </c>
       <c r="H10" s="2">
+        <v>4</v>
+      </c>
+      <c r="I10" s="2">
         <v>0</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <v>90</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>260</v>
       </c>
-      <c r="K10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1709,19 +1743,22 @@
         <v>1</v>
       </c>
       <c r="H11" s="2">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2">
         <v>0</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <v>100</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>280</v>
       </c>
-      <c r="K11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1747,16 +1784,19 @@
         <v>1</v>
       </c>
       <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
         <v>110</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>300</v>
       </c>
-      <c r="K12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1782,16 +1822,19 @@
         <v>2</v>
       </c>
       <c r="I13" s="2">
+        <v>2</v>
+      </c>
+      <c r="J13" s="2">
         <v>120</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>320</v>
       </c>
-      <c r="K13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1817,16 +1860,19 @@
         <v>3</v>
       </c>
       <c r="I14" s="2">
+        <v>3</v>
+      </c>
+      <c r="J14" s="2">
         <v>130</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <v>340</v>
       </c>
-      <c r="K14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1852,16 +1898,19 @@
         <v>4</v>
       </c>
       <c r="I15" s="2">
+        <v>4</v>
+      </c>
+      <c r="J15" s="2">
         <v>140</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <v>360</v>
       </c>
-      <c r="K15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="L15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.2"/>

--- a/GameMaster/RPGTale/Data/Data_Excel/ExploreMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/ExploreMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9A5877-0702-4235-9A98-ADC60794F712}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA657C79-09F9-4DE8-B960-AAEC3E30673A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3750" yWindow="1920" windowWidth="20460" windowHeight="12255" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExploreArea" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="126">
   <si>
     <t>ExploreID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -446,6 +446,54 @@
   </si>
   <si>
     <t>HardLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CameraPos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CameraRotation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExploreArea_Name_102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExploreArea_NameTitle_102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExploreArea_Desc_102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.4,227,-286.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44.177,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-222.4,208.75,-301.99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.837,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-80.65,211.5,-444.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46.671,0,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,12 +552,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -860,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD7B1E4-F0D7-4BD2-94C9-D21747820F10}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -874,12 +925,13 @@
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.25" customWidth="1"/>
     <col min="6" max="6" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="8" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.875" customWidth="1"/>
+    <col min="7" max="8" width="19.125" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -899,16 +951,22 @@
         <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>100</v>
       </c>
@@ -927,17 +985,23 @@
       <c r="F2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="G2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
         <v>3</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>101</v>
       </c>
@@ -956,29 +1020,69 @@
       <c r="F3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="2" t="b">
+      <c r="G3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H3" s="2">
-        <v>2</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>102</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -998,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1323,8 +1427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9224C49D-6D16-455C-A16A-0EE4472F0E94}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/GameMaster/RPGTale/Data/Data_Excel/ExploreMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/ExploreMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA657C79-09F9-4DE8-B960-AAEC3E30673A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C9C56B-2BD1-496D-B746-0248D26FA138}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="1470" windowWidth="20460" windowHeight="12255" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExploreArea" sheetId="2" r:id="rId1"/>
@@ -913,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD7B1E4-F0D7-4BD2-94C9-D21747820F10}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1427,8 +1427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9224C49D-6D16-455C-A16A-0EE4472F0E94}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1514,7 +1514,7 @@
         <v>10</v>
       </c>
       <c r="K2" s="2">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="L2" s="2">
         <v>1</v>
@@ -1552,7 +1552,7 @@
         <v>20</v>
       </c>
       <c r="K3" s="2">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="L3" s="2">
         <v>2</v>
@@ -1590,7 +1590,7 @@
         <v>30</v>
       </c>
       <c r="K4" s="2">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="L4" s="2">
         <v>3</v>
@@ -1628,7 +1628,7 @@
         <v>40</v>
       </c>
       <c r="K5" s="2">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="L5" s="2">
         <v>4</v>
@@ -1666,7 +1666,7 @@
         <v>50</v>
       </c>
       <c r="K6" s="2">
-        <v>180</v>
+        <v>5</v>
       </c>
       <c r="L6" s="2">
         <v>1</v>
@@ -1704,7 +1704,7 @@
         <v>60</v>
       </c>
       <c r="K7" s="2">
-        <v>200</v>
+        <v>6</v>
       </c>
       <c r="L7" s="2">
         <v>2</v>
@@ -1742,7 +1742,7 @@
         <v>70</v>
       </c>
       <c r="K8" s="2">
-        <v>220</v>
+        <v>7</v>
       </c>
       <c r="L8" s="2">
         <v>3</v>
@@ -1780,7 +1780,7 @@
         <v>80</v>
       </c>
       <c r="K9" s="2">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="L9" s="2">
         <v>4</v>
@@ -1818,7 +1818,7 @@
         <v>90</v>
       </c>
       <c r="K10" s="2">
-        <v>260</v>
+        <v>5</v>
       </c>
       <c r="L10" s="2">
         <v>1</v>
@@ -1856,7 +1856,7 @@
         <v>100</v>
       </c>
       <c r="K11" s="2">
-        <v>280</v>
+        <v>6</v>
       </c>
       <c r="L11" s="2">
         <v>1</v>
@@ -1894,7 +1894,7 @@
         <v>110</v>
       </c>
       <c r="K12" s="2">
-        <v>300</v>
+        <v>7</v>
       </c>
       <c r="L12" s="2">
         <v>1</v>
@@ -1932,7 +1932,7 @@
         <v>120</v>
       </c>
       <c r="K13" s="2">
-        <v>320</v>
+        <v>10</v>
       </c>
       <c r="L13" s="2">
         <v>1</v>
@@ -1970,7 +1970,7 @@
         <v>130</v>
       </c>
       <c r="K14" s="2">
-        <v>340</v>
+        <v>10</v>
       </c>
       <c r="L14" s="2">
         <v>1</v>
@@ -2008,7 +2008,7 @@
         <v>140</v>
       </c>
       <c r="K15" s="2">
-        <v>360</v>
+        <v>10</v>
       </c>
       <c r="L15" s="2">
         <v>1</v>
